--- a/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
+++ b/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
@@ -941,12 +941,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
+++ b/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,13 +977,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.18</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
+++ b/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,471 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富港股通专注成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8178</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011405</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5657</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009623</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4343</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1248</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0939</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0839</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1210,64 +804,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.18</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
+++ b/数据整理/stocks/港股/03347-杭州泰格医药科技股份有限公司.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.18</v>
       </c>
     </row>
@@ -515,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
